--- a/Python/LPF_polyhedron.xlsx
+++ b/Python/LPF_polyhedron.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
   <si>
     <t>it</t>
   </si>
@@ -43,166 +43,238 @@
     <t>pf</t>
   </si>
   <si>
-    <t>[3. 0. 0.]</t>
-  </si>
-  <si>
-    <t>[1.7723 0.0501 1.1279]</t>
-  </si>
-  <si>
-    <t>[2.0672 0.116  0.7008]</t>
-  </si>
-  <si>
-    <t>[2.4249 0.2095 0.1561]</t>
-  </si>
-  <si>
-    <t>[2.5051 0.1628 0.1693]</t>
-  </si>
-  <si>
-    <t>[2.7662 0.0786 0.0766]</t>
-  </si>
-  <si>
-    <t>[2.809  0.0632 0.0647]</t>
-  </si>
-  <si>
-    <t>[2.9379 0.0209 0.0203]</t>
-  </si>
-  <si>
-    <t>[2.9551 0.0149 0.015 ]</t>
-  </si>
-  <si>
-    <t>[2.9913 0.0029 0.0029]</t>
-  </si>
-  <si>
-    <t>[2.9952 0.0016 0.0016]</t>
-  </si>
-  <si>
-    <t>[2.9987 0.0004 0.0004]</t>
-  </si>
-  <si>
-    <t>[2.9993 0.0002 0.0002]</t>
-  </si>
-  <si>
-    <t>[2.9995 0.0002 0.0002]</t>
-  </si>
-  <si>
-    <t>[0. 1. 1.]</t>
-  </si>
-  <si>
-    <t>[0.9522 2.9041 1.9522]</t>
-  </si>
-  <si>
-    <t>[0.0002 1.0003 1.0002]</t>
-  </si>
-  <si>
-    <t>[0.1141 1.2282 1.1141]</t>
-  </si>
-  <si>
-    <t>[0.0713 1.1425 1.0713]</t>
-  </si>
-  <si>
-    <t>[0.022 1.044 1.022]</t>
-  </si>
-  <si>
-    <t>[0.0236 1.0472 1.0236]</t>
-  </si>
-  <si>
-    <t>[0.0059 1.0118 1.0059]</t>
-  </si>
-  <si>
-    <t>[0.0051 1.0102 1.0051]</t>
-  </si>
-  <si>
-    <t>[0.0009 1.0018 1.0009]</t>
-  </si>
-  <si>
-    <t>[0.0005 1.0011 1.0005]</t>
-  </si>
-  <si>
-    <t>[0.0001 1.0003 1.0001]</t>
-  </si>
-  <si>
-    <t>[0.0001 1.0002 1.0001]</t>
-  </si>
-  <si>
-    <t>[0.0001 1.0001 1.0001]</t>
-  </si>
-  <si>
-    <t>[-5.3333]</t>
-  </si>
-  <si>
-    <t>[-0.0005]</t>
-  </si>
-  <si>
-    <t>[-0.]</t>
-  </si>
-  <si>
-    <t>[0.]</t>
-  </si>
-  <si>
-    <t>[-2.25 -2.25 -2.25]</t>
-  </si>
-  <si>
-    <t>[-0.0002 -0.0002 -0.0002]</t>
-  </si>
-  <si>
-    <t>[-0. -0. -0.]</t>
-  </si>
-  <si>
-    <t>[0. 0. 0.]</t>
+    <t>[0.04 0.   1.   0.   0.03 0.   0.  ]</t>
+  </si>
+  <si>
+    <t>[0.5593 0.0402 0.5373 0.0001 0.6107 0.4591 0.5303]</t>
+  </si>
+  <si>
+    <t>[1.3928 0.0238 0.5132 0.037  0.4197 0.7471 0.5009]</t>
+  </si>
+  <si>
+    <t>[6.3256 0.0395 0.5131 0.0272 0.3779 0.0005 0.4944]</t>
+  </si>
+  <si>
+    <t>[4.1369 0.0243 0.5182 0.0127 0.3296 0.09   0.4818]</t>
+  </si>
+  <si>
+    <t>[1.5064 0.0087 0.5975 0.0035 0.1382 0.0316 0.4025]</t>
+  </si>
+  <si>
+    <t>[1.0386 0.0059 0.6826 0.0024 0.1026 0.0219 0.3174]</t>
+  </si>
+  <si>
+    <t>[0.2133 0.0011 0.8023 0.0006 0.0381 0.0051 0.1977]</t>
+  </si>
+  <si>
+    <t>[0.1886 0.0009 0.9011 0.0005 0.0388 0.0042 0.0989]</t>
+  </si>
+  <si>
+    <t>[0.139  0.0006 0.9232 0.0004 0.0355 0.003  0.0768]</t>
+  </si>
+  <si>
+    <t>[0.0373 0.     0.9757 0.0001 0.0288 0.0006 0.0243]</t>
+  </si>
+  <si>
+    <t>[0.0528 0.0001 0.9859 0.0001 0.0305 0.0005 0.0141]</t>
+  </si>
+  <si>
+    <t>[0.0413 0.     0.9963 0.     0.03   0.0001 0.0037]</t>
+  </si>
+  <si>
+    <t>[0.0402 0.     0.9994 0.     0.03   0.     0.0006]</t>
+  </si>
+  <si>
+    <t>[0.0402 0.     0.9996 0.     0.03   0.     0.0004]</t>
+  </si>
+  <si>
+    <t>[0.0401 0.     0.9999 0.     0.03   0.     0.0001]</t>
+  </si>
+  <si>
+    <t>[ 0.   15.    0.   10.5   0.    1.5   0.05]</t>
+  </si>
+  <si>
+    <t>[ 0.8408 14.8091  5.6174 16.2969  1.5882  1.9412  5.6862]</t>
+  </si>
+  <si>
+    <t>[ 0.0005 24.1061  2.5448 21.7934  1.8151  0.5006  2.6363]</t>
+  </si>
+  <si>
+    <t>[ 0.0694  1.1478  1.5461 20.0414  1.3813  0.8988  1.6334]</t>
+  </si>
+  <si>
+    <t>[ 0.0369  2.4956  0.1427 13.6572  0.3915  1.378   0.206 ]</t>
+  </si>
+  <si>
+    <t>[ 0.0342  3.426   0.0637 13.4183  0.3618  1.3874  0.1259]</t>
+  </si>
+  <si>
+    <t>[ 0.0311  4.6405  0.0427 13.0644  0.317   1.4038  0.1034]</t>
+  </si>
+  <si>
+    <t>[ 0.0322  5.0909  0.0038 12.7525  0.2746  1.427   0.0633]</t>
+  </si>
+  <si>
+    <t>[ 0.0332  6.6135  0.0074 11.9009  0.1602  1.4864  0.0635]</t>
+  </si>
+  <si>
+    <t>[ 0.0328  7.1375  0.0049 11.6766  0.1306  1.5003  0.0601]</t>
+  </si>
+  <si>
+    <t>[ 0.0309  8.669   0.0008 11.0731  0.0517  1.5359  0.0535]</t>
+  </si>
+  <si>
+    <t>[ 0.0062 13.5638  0.0007 10.698   0.0214  1.5017  0.0516]</t>
+  </si>
+  <si>
+    <t>[ 0.0047 14.0611  0.0002 10.5747  0.0062  1.5063  0.0505]</t>
+  </si>
+  <si>
+    <t>[ 0.0008 14.8377  0.     10.5121  0.0009  1.5012  0.0501]</t>
+  </si>
+  <si>
+    <t>[ 0.0006 14.8882  0.     10.509   0.0007  1.5007  0.0501]</t>
+  </si>
+  <si>
+    <t>[ 0.0001 14.9711  0.     10.5023  0.0002  1.5002  0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9941  0.     10.5005  0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9967  0.     10.5003  0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9987  0.     10.5001  0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9993  0.     10.5001  0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9996  0.     10.5     0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9999  0.     10.5     0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[12.7671 21.929  -0.5128]</t>
+  </si>
+  <si>
+    <t>[ 1.684   2.8924 -0.0676]</t>
+  </si>
+  <si>
+    <t>[ 0.3506  0.6022 -0.0141]</t>
+  </si>
+  <si>
+    <t>[ 0.1864  0.3201 -0.0075]</t>
+  </si>
+  <si>
+    <t>[ 0.  0. -0.]</t>
+  </si>
+  <si>
+    <t>[-0.  0.  0.]</t>
   </si>
   <si>
     <t>[-0. -0.  0.]</t>
   </si>
   <si>
-    <t>[-0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[1.6876 0.1456 2.2019]</t>
-  </si>
-  <si>
-    <t>[0.0003 0.116  0.7009]</t>
-  </si>
-  <si>
-    <t>[0.2767 0.2573 0.174 ]</t>
-  </si>
-  <si>
-    <t>[0.1785 0.186  0.1814]</t>
-  </si>
-  <si>
-    <t>[0.0609 0.0821 0.0783]</t>
-  </si>
-  <si>
-    <t>[0.0663 0.0662 0.0662]</t>
-  </si>
-  <si>
-    <t>[0.0174 0.0211 0.0204]</t>
-  </si>
-  <si>
-    <t>[0.0151 0.0151 0.0151]</t>
-  </si>
-  <si>
-    <t>[0.0027 0.0029 0.0029]</t>
-  </si>
-  <si>
-    <t>[0.0016 0.0016 0.0016]</t>
-  </si>
-  <si>
-    <t>[0.0004 0.0004 0.0004]</t>
-  </si>
-  <si>
-    <t>[0.0002 0.0002 0.0002]</t>
-  </si>
-  <si>
-    <t>-5.33333</t>
-  </si>
-  <si>
-    <t>-0.00053</t>
-  </si>
-  <si>
-    <t>-0.00001</t>
-  </si>
-  <si>
-    <t>-0.00000</t>
+    <t>[ 0. -0.  0.]</t>
+  </si>
+  <si>
+    <t>[-6.7683 -6.7683 -6.7683 -6.7683 -6.7683 -6.7683 -6.7683]</t>
+  </si>
+  <si>
+    <t>[-0.8927 -0.8927 -0.8927 -0.8927 -0.8927 -0.8927 -0.8927]</t>
+  </si>
+  <si>
+    <t>[-0.1859 -0.1859 -0.1859 -0.1859 -0.1859 -0.1859 -0.1859]</t>
+  </si>
+  <si>
+    <t>[-0.0988 -0.0988 -0.0988 -0.0988 -0.0988 -0.0988 -0.0988]</t>
+  </si>
+  <si>
+    <t>[-0. -0. -0. -0. -0. -0. -0.]</t>
+  </si>
+  <si>
+    <t>[0. 0. 0. 0. 0. 0. 0.]</t>
+  </si>
+  <si>
+    <t>[ 0. -0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0. -0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0.  0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0.  0. -0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 0. -0. -0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 0.  0.  0. -0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0.  0. -0. -0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0. -0. -0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 0.  0. -0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[0.4703 0.5958 3.0185 0.0015 0.9699 0.8913 3.0153]</t>
+  </si>
+  <si>
+    <t>[0.0008 0.5749 1.3059 0.8063 0.7617 0.374  1.3206]</t>
+  </si>
+  <si>
+    <t>[0.4392 0.0453 0.7933 0.5448 0.522  0.0005 0.8075]</t>
+  </si>
+  <si>
+    <t>[0.1525 0.0606 0.074  0.1736 0.129  0.124  0.0992]</t>
+  </si>
+  <si>
+    <t>[0.0514 0.0298 0.0381 0.0465 0.05   0.0438 0.0507]</t>
+  </si>
+  <si>
+    <t>[0.0323 0.0276 0.0291 0.0313 0.0325 0.0308 0.0328]</t>
+  </si>
+  <si>
+    <t>[0.0069 0.0055 0.0031 0.0083 0.0105 0.0073 0.0125]</t>
+  </si>
+  <si>
+    <t>[0.0063 0.006  0.0066 0.0064 0.0062 0.0062 0.0063]</t>
+  </si>
+  <si>
+    <t>[0.0046 0.0044 0.0045 0.0046 0.0046 0.0045 0.0046]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.     0.0007 0.0011 0.0015 0.0009 0.0013]</t>
+  </si>
+  <si>
+    <t>[0.0003 0.0011 0.0007 0.0007 0.0007 0.0007 0.0007]</t>
+  </si>
+  <si>
+    <t>[0.0002 0.0001 0.0002 0.0002 0.0002 0.0002 0.0002]</t>
+  </si>
+  <si>
+    <t>21.92902</t>
+  </si>
+  <si>
+    <t>2.89244</t>
+  </si>
+  <si>
+    <t>0.60221</t>
+  </si>
+  <si>
+    <t>0.32013</t>
+  </si>
+  <si>
+    <t>0.00003</t>
   </si>
   <si>
     <t>0.00000</t>
@@ -563,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,28 +675,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.666666666666668</v>
+        <v>39.80403590861816</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>2.23948820762655e-16</v>
+        <v>2.862335708356408e-14</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -632,28 +704,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.033348716507333</v>
+        <v>10.39833746423418</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H3">
-        <v>1.513290580783763</v>
+        <v>3.006576648808863</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -661,28 +733,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8172138256504047</v>
+        <v>5.194861401991539</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="H4">
-        <v>0.5311196667222291</v>
+        <v>1.170352727397749</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -690,28 +762,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7079514039888717</v>
+        <v>2.867810051947025</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="H5">
-        <v>0.07720444702179673</v>
+        <v>0.7910617856735006</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -719,28 +791,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5458842411249987</v>
+        <v>0.812838933510774</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H6">
-        <v>0.005305351291251894</v>
+        <v>0.09996381355740265</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -748,28 +820,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2212992796006232</v>
+        <v>0.3102987829968339</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H7">
-        <v>0.01596216987572961</v>
+        <v>0.01945159732319135</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -777,28 +849,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.19865012520264</v>
+        <v>0.2164846884317029</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>8.365694226346268e-05</v>
+        <v>0.004774172077708389</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -806,28 +878,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05889858633946687</v>
+        <v>0.05399534238257162</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="H9">
-        <v>0.002839621756462008</v>
+        <v>0.007630715000805509</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -835,28 +907,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.04521590777107942</v>
+        <v>0.04407325043852132</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H10">
-        <v>1.777498120467252e-05</v>
+        <v>0.0004621002209301225</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -864,28 +936,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.008478966173345981</v>
+        <v>0.03175797988166948</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H11">
-        <v>0.0001892912553251527</v>
+        <v>0.0002114058700577302</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -893,28 +965,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.004757347930380629</v>
+        <v>0.006674823065043807</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H12">
-        <v>1.826957214130833e-06</v>
+        <v>0.001200730205603908</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -922,28 +994,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.001261497823060065</v>
+        <v>0.004952366517566281</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H13">
-        <v>1.69515971726221e-06</v>
+        <v>0.000553883624758864</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -951,28 +1023,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0006991338796624724</v>
+        <v>0.001240459636678064</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H14">
-        <v>4.387439548352686e-08</v>
+        <v>4.261260772302595e-05</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -980,28 +1052,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0004612731585269536</v>
+        <v>0.0002003483277169399</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15">
-        <v>7.844999120068674e-09</v>
+        <v>8.222867659986816e-06</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1009,28 +1081,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.682009493484074e-05</v>
+        <v>0.000157234115489284</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H16">
-        <v>2.380751256914984e-08</v>
+        <v>7.799615607499794e-09</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1038,28 +1110,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.001099076919814e-06</v>
+        <v>4.006969137335115e-05</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H17">
-        <v>2.219737270127899e-10</v>
+        <v>1.165530451916088e-07</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1067,28 +1139,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.128606002431809e-06</v>
+        <v>8.277119673986977e-06</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H18">
-        <v>4.80111151605103e-12</v>
+        <v>8.480947772661136e-09</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1096,28 +1168,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.982237785140399e-07</v>
+        <v>4.628344256560335e-06</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H19">
-        <v>3.946302164244582e-14</v>
+        <v>1.126184229320556e-10</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1125,28 +1197,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.030831343091677e-07</v>
+        <v>1.772642134890978e-06</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <v>2.164127739474397e-14</v>
+        <v>6.885125058667876e-11</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1154,28 +1226,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.788702892469018e-07</v>
+        <v>9.864533029521616e-07</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H21">
-        <v>8.340816843799799e-17</v>
+        <v>5.223259023891439e-12</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1183,28 +1255,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.751108587252588e-08</v>
+        <v>5.825056445807331e-07</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H22">
-        <v>9.173131215019552e-16</v>
+        <v>1.37782387637899e-12</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1212,28 +1284,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.992638125145277e-08</v>
+        <v>1.147994859174162e-07</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H23">
-        <v>3.138787744397386e-16</v>
+        <v>1.846548524270721e-12</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1241,28 +1313,57 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.729364869315305e-09</v>
+        <v>6.594526645586907e-08</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>2.032847396592098e-14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24">
-        <v>2.23948820762655e-16</v>
-      </c>
-      <c r="I24" t="s">
-        <v>63</v>
+      <c r="B25">
+        <v>7.713900650185845e-09</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <v>2.862335708356408e-14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Python/LPF_polyhedron.xlsx
+++ b/Python/LPF_polyhedron.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
   <si>
     <t>it</t>
   </si>
@@ -46,127 +46,142 @@
     <t>[0.04 0.   1.   0.   0.03 0.   0.  ]</t>
   </si>
   <si>
-    <t>[0.5593 0.0402 0.5373 0.0001 0.6107 0.4591 0.5303]</t>
-  </si>
-  <si>
-    <t>[1.3928 0.0238 0.5132 0.037  0.4197 0.7471 0.5009]</t>
-  </si>
-  <si>
-    <t>[6.3256 0.0395 0.5131 0.0272 0.3779 0.0005 0.4944]</t>
-  </si>
-  <si>
-    <t>[4.1369 0.0243 0.5182 0.0127 0.3296 0.09   0.4818]</t>
-  </si>
-  <si>
-    <t>[1.5064 0.0087 0.5975 0.0035 0.1382 0.0316 0.4025]</t>
-  </si>
-  <si>
-    <t>[1.0386 0.0059 0.6826 0.0024 0.1026 0.0219 0.3174]</t>
-  </si>
-  <si>
-    <t>[0.2133 0.0011 0.8023 0.0006 0.0381 0.0051 0.1977]</t>
-  </si>
-  <si>
-    <t>[0.1886 0.0009 0.9011 0.0005 0.0388 0.0042 0.0989]</t>
-  </si>
-  <si>
-    <t>[0.139  0.0006 0.9232 0.0004 0.0355 0.003  0.0768]</t>
-  </si>
-  <si>
-    <t>[0.0373 0.     0.9757 0.0001 0.0288 0.0006 0.0243]</t>
-  </si>
-  <si>
-    <t>[0.0528 0.0001 0.9859 0.0001 0.0305 0.0005 0.0141]</t>
-  </si>
-  <si>
-    <t>[0.0413 0.     0.9963 0.     0.03   0.0001 0.0037]</t>
-  </si>
-  <si>
-    <t>[0.0402 0.     0.9994 0.     0.03   0.     0.0006]</t>
-  </si>
-  <si>
-    <t>[0.0402 0.     0.9996 0.     0.03   0.     0.0004]</t>
-  </si>
-  <si>
-    <t>[0.0401 0.     0.9999 0.     0.03   0.     0.0001]</t>
+    <t>[0.4397 0.0313 0.5291 0.0001 0.4802 0.3608 0.5234]</t>
+  </si>
+  <si>
+    <t>[0.7638 0.0111 0.5094 0.0148 0.2133 0.3277 0.4965]</t>
+  </si>
+  <si>
+    <t>[3.3007 0.0214 0.5134 0.014  0.2752 0.1093 0.4899]</t>
+  </si>
+  <si>
+    <t>[3.6374 0.0213 0.5294 0.0091 0.3078 0.0812 0.4706]</t>
+  </si>
+  <si>
+    <t>[1.5191 0.0088 0.584  0.0034 0.1394 0.0315 0.416 ]</t>
+  </si>
+  <si>
+    <t>[1.1921 0.0068 0.6731 0.0027 0.115  0.025  0.3269]</t>
+  </si>
+  <si>
+    <t>[0.6129 0.0034 0.7458 0.0015 0.0694 0.0132 0.2542]</t>
+  </si>
+  <si>
+    <t>[0.4681 0.0026 0.8045 0.0012 0.0591 0.0102 0.1955]</t>
+  </si>
+  <si>
+    <t>[0.4107 0.0022 0.8243 0.001  0.0549 0.009  0.1757]</t>
+  </si>
+  <si>
+    <t>[0.1534 0.0007 0.8982 0.0005 0.0358 0.0036 0.1018]</t>
+  </si>
+  <si>
+    <t>[0.139  0.0006 0.9239 0.0004 0.0355 0.003  0.0761]</t>
+  </si>
+  <si>
+    <t>[0.1107 0.0004 0.9394 0.0003 0.0337 0.0023 0.0606]</t>
+  </si>
+  <si>
+    <t>[0.0379 0.     0.9814 0.0001 0.0291 0.0005 0.0186]</t>
+  </si>
+  <si>
+    <t>[0.0467 0.     0.9915 0.     0.0302 0.0003 0.0085]</t>
+  </si>
+  <si>
+    <t>[0.0402 0.     0.9988 0.     0.03   0.     0.0012]</t>
+  </si>
+  <si>
+    <t>[0.0401 0.     0.9998 0.     0.03   0.     0.0002]</t>
+  </si>
+  <si>
+    <t>[0.04   0.     0.9999 0.     0.03   0.     0.0001]</t>
   </si>
   <si>
     <t>[ 0.   15.    0.   10.5   0.    1.5   0.05]</t>
   </si>
   <si>
-    <t>[ 0.8408 14.8091  5.6174 16.2969  1.5882  1.9412  5.6862]</t>
-  </si>
-  <si>
-    <t>[ 0.0005 24.1061  2.5448 21.7934  1.8151  0.5006  2.6363]</t>
-  </si>
-  <si>
-    <t>[ 0.0694  1.1478  1.5461 20.0414  1.3813  0.8988  1.6334]</t>
-  </si>
-  <si>
-    <t>[ 0.0369  2.4956  0.1427 13.6572  0.3915  1.378   0.206 ]</t>
-  </si>
-  <si>
-    <t>[ 0.0342  3.426   0.0637 13.4183  0.3618  1.3874  0.1259]</t>
-  </si>
-  <si>
-    <t>[ 0.0311  4.6405  0.0427 13.0644  0.317   1.4038  0.1034]</t>
-  </si>
-  <si>
-    <t>[ 0.0322  5.0909  0.0038 12.7525  0.2746  1.427   0.0633]</t>
-  </si>
-  <si>
-    <t>[ 0.0332  6.6135  0.0074 11.9009  0.1602  1.4864  0.0635]</t>
-  </si>
-  <si>
-    <t>[ 0.0328  7.1375  0.0049 11.6766  0.1306  1.5003  0.0601]</t>
-  </si>
-  <si>
-    <t>[ 0.0309  8.669   0.0008 11.0731  0.0517  1.5359  0.0535]</t>
-  </si>
-  <si>
-    <t>[ 0.0062 13.5638  0.0007 10.698   0.0214  1.5017  0.0516]</t>
-  </si>
-  <si>
-    <t>[ 0.0047 14.0611  0.0002 10.5747  0.0062  1.5063  0.0505]</t>
-  </si>
-  <si>
-    <t>[ 0.0008 14.8377  0.     10.5121  0.0009  1.5012  0.0501]</t>
-  </si>
-  <si>
-    <t>[ 0.0006 14.8882  0.     10.509   0.0007  1.5007  0.0501]</t>
-  </si>
-  <si>
-    <t>[ 0.0001 14.9711  0.     10.5023  0.0002  1.5002  0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9941  0.     10.5005  0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9967  0.     10.5003  0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9987  0.     10.5001  0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9993  0.     10.5001  0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9996  0.     10.5     0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9999  0.     10.5     0.      1.5     0.05  ]</t>
+    <t>[ 0.696  11.6507  4.408  12.9111  0.9187  2.0865  4.4649]</t>
+  </si>
+  <si>
+    <t>[ 0.0004 14.9598  1.0205 17.1247  1.0124  0.9558  1.0954]</t>
+  </si>
+  <si>
+    <t>[ 0.0828  0.0102  0.682  14.7076  0.5663  1.361   0.7493]</t>
+  </si>
+  <si>
+    <t>[ 0.0257  5.2493  0.1981 13.2192  0.342   1.3803  0.2594]</t>
+  </si>
+  <si>
+    <t>[ 0.0271  5.1619  0.063  13.1428  0.3307  1.3889  0.124 ]</t>
+  </si>
+  <si>
+    <t>[ 0.029   5.14    0.0505 12.998   0.3099  1.403   0.111 ]</t>
+  </si>
+  <si>
+    <t>[ 0.0299  5.3157  0.0226 12.8316  0.287   1.4163  0.0824]</t>
+  </si>
+  <si>
+    <t>[ 0.031   5.605   0.0179 12.5929  0.2542  1.4349  0.0768]</t>
+  </si>
+  <si>
+    <t>[ 0.0315  5.7757  0.0157 12.4682  0.2372  1.4443  0.074 ]</t>
+  </si>
+  <si>
+    <t>[ 0.0329  6.3669  0.0052 12.0542  0.1809  1.4753  0.0619]</t>
+  </si>
+  <si>
+    <t>[ 0.0325  7.2298  0.0049 11.6533  0.1278  1.5012  0.06  ]</t>
+  </si>
+  <si>
+    <t>[ 0.0317  7.7122  0.0037 11.4775  0.1049  1.511   0.0581]</t>
+  </si>
+  <si>
+    <t>[ 0.0278  9.4384  0.0006 10.9451  0.0371  1.5371  0.0529]</t>
+  </si>
+  <si>
+    <t>[ 0.0044 14.0171  0.0004 10.6218  0.0127  1.5024  0.051 ]</t>
+  </si>
+  <si>
+    <t>[ 0.0018 14.6562  0.0001 10.5246  0.0019  1.5026  0.0502]</t>
+  </si>
+  <si>
+    <t>[ 0.0002 14.9611  0.     10.5031  0.0003  1.5003  0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.0001 14.9868  0.     10.5011  0.0001  1.5001  0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9909  0.     10.5007  0.0001  1.5001  0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9947  0.     10.5004  0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9959  0.     10.5003  0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9976  0.     10.5002  0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9988  0.     10.5001  0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9994  0.     10.5     0.      1.5     0.05  ]</t>
+  </si>
+  <si>
+    <t>[ 0.     14.9998  0.     10.5     0.      1.5     0.05  ]</t>
   </si>
   <si>
     <t>[12.7671 21.929  -0.5128]</t>
   </si>
   <si>
-    <t>[ 1.684   2.8924 -0.0676]</t>
-  </si>
-  <si>
-    <t>[ 0.3506  0.6022 -0.0141]</t>
-  </si>
-  <si>
-    <t>[ 0.1864  0.3201 -0.0075]</t>
+    <t>[ 1.3061  2.2433 -0.0525]</t>
+  </si>
+  <si>
+    <t>[ 0.1464  0.2515 -0.0059]</t>
+  </si>
+  <si>
+    <t>[ 0.081   0.139  -0.0033]</t>
   </si>
   <si>
     <t>[ 0.  0. -0.]</t>
@@ -175,109 +190,136 @@
     <t>[-0.  0.  0.]</t>
   </si>
   <si>
+    <t>[-0. -0. -0.]</t>
+  </si>
+  <si>
+    <t>[0. 0. 0.]</t>
+  </si>
+  <si>
     <t>[-0. -0.  0.]</t>
   </si>
   <si>
     <t>[ 0. -0.  0.]</t>
   </si>
   <si>
+    <t>[-0.  0. -0.]</t>
+  </si>
+  <si>
     <t>[-6.7683 -6.7683 -6.7683 -6.7683 -6.7683 -6.7683 -6.7683]</t>
   </si>
   <si>
-    <t>[-0.8927 -0.8927 -0.8927 -0.8927 -0.8927 -0.8927 -0.8927]</t>
-  </si>
-  <si>
-    <t>[-0.1859 -0.1859 -0.1859 -0.1859 -0.1859 -0.1859 -0.1859]</t>
-  </si>
-  <si>
-    <t>[-0.0988 -0.0988 -0.0988 -0.0988 -0.0988 -0.0988 -0.0988]</t>
+    <t>[-0.6924 -0.6924 -0.6924 -0.6924 -0.6924 -0.6924 -0.6924]</t>
+  </si>
+  <si>
+    <t>[-0.0776 -0.0776 -0.0776 -0.0776 -0.0776 -0.0776 -0.0776]</t>
+  </si>
+  <si>
+    <t>[-0.0429 -0.0429 -0.0429 -0.0429 -0.0429 -0.0429 -0.0429]</t>
   </si>
   <si>
     <t>[-0. -0. -0. -0. -0. -0. -0.]</t>
   </si>
   <si>
+    <t>[-0.  0. -0.  0.  0.  0. -0.]</t>
+  </si>
+  <si>
+    <t>[ 0. -0.  0. -0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 0.  0. -0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0.  0.  0. -0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0. -0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0.  0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0.  0. -0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 0. -0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 0. -0. -0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0. -0. -0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0.  0. -0. -0.  0.  0.  0.]</t>
+  </si>
+  <si>
     <t>[0. 0. 0. 0. 0. 0. 0.]</t>
   </si>
   <si>
-    <t>[ 0. -0.  0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0. -0.  0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0.  0.  0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0.  0. -0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[ 0. -0. -0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[ 0.  0.  0. -0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0.  0. -0. -0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0. -0. -0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[ 0.  0. -0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[0.4703 0.5958 3.0185 0.0015 0.9699 0.8913 3.0153]</t>
-  </si>
-  <si>
-    <t>[0.0008 0.5749 1.3059 0.8063 0.7617 0.374  1.3206]</t>
-  </si>
-  <si>
-    <t>[0.4392 0.0453 0.7933 0.5448 0.522  0.0005 0.8075]</t>
-  </si>
-  <si>
-    <t>[0.1525 0.0606 0.074  0.1736 0.129  0.124  0.0992]</t>
-  </si>
-  <si>
-    <t>[0.0514 0.0298 0.0381 0.0465 0.05   0.0438 0.0507]</t>
-  </si>
-  <si>
-    <t>[0.0323 0.0276 0.0291 0.0313 0.0325 0.0308 0.0328]</t>
-  </si>
-  <si>
-    <t>[0.0069 0.0055 0.0031 0.0083 0.0105 0.0073 0.0125]</t>
-  </si>
-  <si>
-    <t>[0.0063 0.006  0.0066 0.0064 0.0062 0.0062 0.0063]</t>
-  </si>
-  <si>
-    <t>[0.0046 0.0044 0.0045 0.0046 0.0046 0.0045 0.0046]</t>
-  </si>
-  <si>
-    <t>[0.0012 0.     0.0007 0.0011 0.0015 0.0009 0.0013]</t>
-  </si>
-  <si>
-    <t>[0.0003 0.0011 0.0007 0.0007 0.0007 0.0007 0.0007]</t>
-  </si>
-  <si>
-    <t>[0.0002 0.0001 0.0002 0.0002 0.0002 0.0002 0.0002]</t>
+    <t>[0.306  0.3642 2.3323 0.0011 0.4411 0.7528 2.3367]</t>
+  </si>
+  <si>
+    <t>[0.0003 0.1655 0.5198 0.2536 0.2159 0.3133 0.5439]</t>
+  </si>
+  <si>
+    <t>[0.2733 0.0002 0.3501 0.2062 0.1558 0.1487 0.3671]</t>
+  </si>
+  <si>
+    <t>[0.0934 0.1118 0.1049 0.12   0.1053 0.1121 0.1221]</t>
+  </si>
+  <si>
+    <t>[0.0412 0.0453 0.0368 0.0446 0.0461 0.0438 0.0516]</t>
+  </si>
+  <si>
+    <t>[0.0345 0.0352 0.034  0.0352 0.0356 0.035  0.0363]</t>
+  </si>
+  <si>
+    <t>[0.0183 0.0183 0.0168 0.0191 0.0199 0.0187 0.0209]</t>
+  </si>
+  <si>
+    <t>[0.0145 0.0144 0.0144 0.0148 0.015  0.0146 0.015 ]</t>
+  </si>
+  <si>
+    <t>[0.0129 0.0129 0.0129 0.013  0.013  0.0129 0.013 ]</t>
+  </si>
+  <si>
+    <t>[0.005  0.0045 0.0046 0.0056 0.0065 0.0052 0.0063]</t>
+  </si>
+  <si>
+    <t>[0.0045 0.0044 0.0045 0.0045 0.0045 0.0045 0.0046]</t>
+  </si>
+  <si>
+    <t>[0.0035 0.0034 0.0035 0.0035 0.0035 0.0035 0.0035]</t>
+  </si>
+  <si>
+    <t>[0.0011 0.     0.0006 0.0009 0.0011 0.0007 0.001 ]</t>
+  </si>
+  <si>
+    <t>[0.0002 0.0006 0.0004 0.0004 0.0004 0.0004 0.0004]</t>
+  </si>
+  <si>
+    <t>[0.0001 0.     0.0001 0.0001 0.0001 0.0001 0.0001]</t>
   </si>
   <si>
     <t>21.92902</t>
   </si>
   <si>
-    <t>2.89244</t>
-  </si>
-  <si>
-    <t>0.60221</t>
-  </si>
-  <si>
-    <t>0.32013</t>
-  </si>
-  <si>
-    <t>0.00003</t>
+    <t>2.24334</t>
+  </si>
+  <si>
+    <t>0.25148</t>
+  </si>
+  <si>
+    <t>0.13904</t>
+  </si>
+  <si>
+    <t>0.00001</t>
   </si>
   <si>
     <t>0.00000</t>
+  </si>
+  <si>
+    <t>-0.00000</t>
   </si>
 </sst>
 </file>
@@ -635,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,22 +723,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H2">
-        <v>2.862335708356408e-14</v>
+        <v>1.41994544199221e-15</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -704,28 +746,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.39833746423418</v>
+        <v>8.122158920017009</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H3">
-        <v>3.006576648808863</v>
+        <v>2.405825597929232</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -733,28 +775,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.194861401991539</v>
+        <v>2.1825826831561</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H4">
-        <v>1.170352727397749</v>
+        <v>0.4732938315298498</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -762,28 +804,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.867810051947025</v>
+        <v>1.522096275660562</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H5">
-        <v>0.7910617856735006</v>
+        <v>0.3144515676303228</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -791,28 +833,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.812838933510774</v>
+        <v>0.7694305629019853</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H6">
-        <v>0.09996381355740265</v>
+        <v>0.02402716024317442</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -820,28 +862,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3102987829968339</v>
+        <v>0.3093353680552788</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H7">
-        <v>0.01945159732319135</v>
+        <v>0.01111867681070977</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -849,28 +891,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2164846884317029</v>
+        <v>0.2458512842002365</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H8">
-        <v>0.004774172077708389</v>
+        <v>0.001798390487097873</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -878,28 +920,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05399534238257162</v>
+        <v>0.1320188516797163</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H9">
-        <v>0.007630715000805509</v>
+        <v>0.003205157620672107</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -907,28 +949,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.04407325043852132</v>
+        <v>0.1027468186300735</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H10">
-        <v>0.0004621002209301225</v>
+        <v>0.0006278809171530378</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -936,28 +978,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.03175797988166948</v>
+        <v>0.09066916297738932</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H11">
-        <v>0.0002114058700577302</v>
+        <v>0.0001202810851524143</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -965,28 +1007,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.006674823065043807</v>
+        <v>0.0378509536855582</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H12">
-        <v>0.001200730205603908</v>
+        <v>0.001893847827253601</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -994,28 +1036,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.004952366517566281</v>
+        <v>0.03161469070622586</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H13">
-        <v>0.000553883624758864</v>
+        <v>0.0001028853530183553</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1023,28 +1065,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.001240459636678064</v>
+        <v>0.02444558991039863</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H14">
-        <v>4.261260772302595e-05</v>
+        <v>0.0001024642303835637</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1052,28 +1094,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0002003483277169399</v>
+        <v>0.005357989495174117</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="H15">
-        <v>8.222867659986816e-06</v>
+        <v>0.0009199740206548515</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1081,28 +1123,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.000157234115489284</v>
+        <v>0.002893096039442759</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H16">
-        <v>7.799615607499794e-09</v>
+        <v>0.0002904634113424401</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1110,28 +1152,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.006969137335115e-05</v>
+        <v>0.0003720415727398035</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="H17">
-        <v>1.165530451916088e-07</v>
+        <v>3.283227311506725e-05</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1139,28 +1181,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.277119673986977e-06</v>
+        <v>5.344849628838994e-05</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H18">
-        <v>8.480947772661136e-09</v>
+        <v>4.860718543400837e-07</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1168,28 +1210,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.628344256560335e-06</v>
+        <v>1.850326062055596e-05</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H19">
-        <v>1.126184229320556e-10</v>
+        <v>9.775485150095025e-09</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1197,28 +1239,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.772642134890978e-06</v>
+        <v>1.268967991656378e-05</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H20">
-        <v>6.885125058667876e-11</v>
+        <v>2.852455255772857e-10</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1226,28 +1268,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.864533029521616e-07</v>
+        <v>7.468225176214538e-06</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H21">
-        <v>5.223259023891439e-12</v>
+        <v>2.302381972413928e-10</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1255,28 +1297,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.825056445807331e-07</v>
+        <v>5.803469498973091e-06</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H22">
-        <v>1.37782387637899e-12</v>
+        <v>2.34148071906722e-11</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1284,28 +1326,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.147994859174162e-07</v>
+        <v>3.35483909892631e-06</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H23">
-        <v>1.846548524270721e-12</v>
+        <v>5.062131708318358e-11</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1313,28 +1355,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.594526645586907e-08</v>
+        <v>1.720973337143716e-06</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H24">
-        <v>2.032847396592098e-14</v>
+        <v>2.253886092759562e-11</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1342,28 +1384,144 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.713900650185845e-09</v>
+        <v>8.315656538290805e-07</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25">
+        <v>6.679241853994211e-12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3.370102927766072e-07</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26">
+        <v>2.065122626596265e-12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="B27">
+        <v>5.488401291775524e-08</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
         <v>69</v>
       </c>
-      <c r="G25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25">
-        <v>2.862335708356408e-14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>87</v>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27">
+        <v>6.720380131011119e-13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2.170563716263896e-08</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28">
+        <v>9.358260363864659e-15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>8.739656602585466e-09</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29">
+        <v>1.41994544199221e-15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Python/LPF_polyhedron.xlsx
+++ b/Python/LPF_polyhedron.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="68">
   <si>
     <t>it</t>
   </si>
@@ -43,283 +43,181 @@
     <t>pf</t>
   </si>
   <si>
-    <t>[0.04 0.   1.   0.   0.03 0.   0.  ]</t>
-  </si>
-  <si>
-    <t>[0.4397 0.0313 0.5291 0.0001 0.4802 0.3608 0.5234]</t>
-  </si>
-  <si>
-    <t>[0.7638 0.0111 0.5094 0.0148 0.2133 0.3277 0.4965]</t>
-  </si>
-  <si>
-    <t>[3.3007 0.0214 0.5134 0.014  0.2752 0.1093 0.4899]</t>
-  </si>
-  <si>
-    <t>[3.6374 0.0213 0.5294 0.0091 0.3078 0.0812 0.4706]</t>
-  </si>
-  <si>
-    <t>[1.5191 0.0088 0.584  0.0034 0.1394 0.0315 0.416 ]</t>
-  </si>
-  <si>
-    <t>[1.1921 0.0068 0.6731 0.0027 0.115  0.025  0.3269]</t>
-  </si>
-  <si>
-    <t>[0.6129 0.0034 0.7458 0.0015 0.0694 0.0132 0.2542]</t>
-  </si>
-  <si>
-    <t>[0.4681 0.0026 0.8045 0.0012 0.0591 0.0102 0.1955]</t>
-  </si>
-  <si>
-    <t>[0.4107 0.0022 0.8243 0.001  0.0549 0.009  0.1757]</t>
-  </si>
-  <si>
-    <t>[0.1534 0.0007 0.8982 0.0005 0.0358 0.0036 0.1018]</t>
-  </si>
-  <si>
-    <t>[0.139  0.0006 0.9239 0.0004 0.0355 0.003  0.0761]</t>
-  </si>
-  <si>
-    <t>[0.1107 0.0004 0.9394 0.0003 0.0337 0.0023 0.0606]</t>
-  </si>
-  <si>
-    <t>[0.0379 0.     0.9814 0.0001 0.0291 0.0005 0.0186]</t>
-  </si>
-  <si>
-    <t>[0.0467 0.     0.9915 0.     0.0302 0.0003 0.0085]</t>
-  </si>
-  <si>
-    <t>[0.0402 0.     0.9988 0.     0.03   0.     0.0012]</t>
-  </si>
-  <si>
-    <t>[0.0401 0.     0.9998 0.     0.03   0.     0.0002]</t>
-  </si>
-  <si>
-    <t>[0.04   0.     0.9999 0.     0.03   0.     0.0001]</t>
-  </si>
-  <si>
-    <t>[ 0.   15.    0.   10.5   0.    1.5   0.05]</t>
-  </si>
-  <si>
-    <t>[ 0.696  11.6507  4.408  12.9111  0.9187  2.0865  4.4649]</t>
-  </si>
-  <si>
-    <t>[ 0.0004 14.9598  1.0205 17.1247  1.0124  0.9558  1.0954]</t>
-  </si>
-  <si>
-    <t>[ 0.0828  0.0102  0.682  14.7076  0.5663  1.361   0.7493]</t>
-  </si>
-  <si>
-    <t>[ 0.0257  5.2493  0.1981 13.2192  0.342   1.3803  0.2594]</t>
-  </si>
-  <si>
-    <t>[ 0.0271  5.1619  0.063  13.1428  0.3307  1.3889  0.124 ]</t>
-  </si>
-  <si>
-    <t>[ 0.029   5.14    0.0505 12.998   0.3099  1.403   0.111 ]</t>
-  </si>
-  <si>
-    <t>[ 0.0299  5.3157  0.0226 12.8316  0.287   1.4163  0.0824]</t>
-  </si>
-  <si>
-    <t>[ 0.031   5.605   0.0179 12.5929  0.2542  1.4349  0.0768]</t>
-  </si>
-  <si>
-    <t>[ 0.0315  5.7757  0.0157 12.4682  0.2372  1.4443  0.074 ]</t>
-  </si>
-  <si>
-    <t>[ 0.0329  6.3669  0.0052 12.0542  0.1809  1.4753  0.0619]</t>
-  </si>
-  <si>
-    <t>[ 0.0325  7.2298  0.0049 11.6533  0.1278  1.5012  0.06  ]</t>
-  </si>
-  <si>
-    <t>[ 0.0317  7.7122  0.0037 11.4775  0.1049  1.511   0.0581]</t>
-  </si>
-  <si>
-    <t>[ 0.0278  9.4384  0.0006 10.9451  0.0371  1.5371  0.0529]</t>
-  </si>
-  <si>
-    <t>[ 0.0044 14.0171  0.0004 10.6218  0.0127  1.5024  0.051 ]</t>
-  </si>
-  <si>
-    <t>[ 0.0018 14.6562  0.0001 10.5246  0.0019  1.5026  0.0502]</t>
-  </si>
-  <si>
-    <t>[ 0.0002 14.9611  0.     10.5031  0.0003  1.5003  0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.0001 14.9868  0.     10.5011  0.0001  1.5001  0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9909  0.     10.5007  0.0001  1.5001  0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9947  0.     10.5004  0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9959  0.     10.5003  0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9976  0.     10.5002  0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9988  0.     10.5001  0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9994  0.     10.5     0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[ 0.     14.9998  0.     10.5     0.      1.5     0.05  ]</t>
-  </si>
-  <si>
-    <t>[12.7671 21.929  -0.5128]</t>
-  </si>
-  <si>
-    <t>[ 1.3061  2.2433 -0.0525]</t>
-  </si>
-  <si>
-    <t>[ 0.1464  0.2515 -0.0059]</t>
-  </si>
-  <si>
-    <t>[ 0.081   0.139  -0.0033]</t>
-  </si>
-  <si>
-    <t>[ 0.  0. -0.]</t>
-  </si>
-  <si>
-    <t>[-0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0. -0. -0.]</t>
-  </si>
-  <si>
-    <t>[0. 0. 0.]</t>
-  </si>
-  <si>
-    <t>[-0. -0.  0.]</t>
-  </si>
-  <si>
-    <t>[ 0. -0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0.  0. -0.]</t>
-  </si>
-  <si>
-    <t>[-6.7683 -6.7683 -6.7683 -6.7683 -6.7683 -6.7683 -6.7683]</t>
-  </si>
-  <si>
-    <t>[-0.6924 -0.6924 -0.6924 -0.6924 -0.6924 -0.6924 -0.6924]</t>
-  </si>
-  <si>
-    <t>[-0.0776 -0.0776 -0.0776 -0.0776 -0.0776 -0.0776 -0.0776]</t>
-  </si>
-  <si>
-    <t>[-0.0429 -0.0429 -0.0429 -0.0429 -0.0429 -0.0429 -0.0429]</t>
-  </si>
-  <si>
-    <t>[-0. -0. -0. -0. -0. -0. -0.]</t>
-  </si>
-  <si>
-    <t>[-0.  0. -0.  0.  0.  0. -0.]</t>
-  </si>
-  <si>
-    <t>[ 0. -0.  0. -0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[ 0.  0. -0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0.  0.  0. -0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0. -0.  0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0.  0.  0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0.  0. -0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[ 0. -0.  0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[ 0. -0. -0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0. -0. -0.  0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[-0.  0. -0. -0.  0.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[0. 0. 0. 0. 0. 0. 0.]</t>
-  </si>
-  <si>
-    <t>[0.306  0.3642 2.3323 0.0011 0.4411 0.7528 2.3367]</t>
-  </si>
-  <si>
-    <t>[0.0003 0.1655 0.5198 0.2536 0.2159 0.3133 0.5439]</t>
-  </si>
-  <si>
-    <t>[0.2733 0.0002 0.3501 0.2062 0.1558 0.1487 0.3671]</t>
-  </si>
-  <si>
-    <t>[0.0934 0.1118 0.1049 0.12   0.1053 0.1121 0.1221]</t>
-  </si>
-  <si>
-    <t>[0.0412 0.0453 0.0368 0.0446 0.0461 0.0438 0.0516]</t>
-  </si>
-  <si>
-    <t>[0.0345 0.0352 0.034  0.0352 0.0356 0.035  0.0363]</t>
-  </si>
-  <si>
-    <t>[0.0183 0.0183 0.0168 0.0191 0.0199 0.0187 0.0209]</t>
-  </si>
-  <si>
-    <t>[0.0145 0.0144 0.0144 0.0148 0.015  0.0146 0.015 ]</t>
-  </si>
-  <si>
-    <t>[0.0129 0.0129 0.0129 0.013  0.013  0.0129 0.013 ]</t>
-  </si>
-  <si>
-    <t>[0.005  0.0045 0.0046 0.0056 0.0065 0.0052 0.0063]</t>
-  </si>
-  <si>
-    <t>[0.0045 0.0044 0.0045 0.0045 0.0045 0.0045 0.0046]</t>
-  </si>
-  <si>
-    <t>[0.0035 0.0034 0.0035 0.0035 0.0035 0.0035 0.0035]</t>
-  </si>
-  <si>
-    <t>[0.0011 0.     0.0006 0.0009 0.0011 0.0007 0.001 ]</t>
-  </si>
-  <si>
-    <t>[0.0002 0.0006 0.0004 0.0004 0.0004 0.0004 0.0004]</t>
-  </si>
-  <si>
-    <t>[0.0001 0.     0.0001 0.0001 0.0001 0.0001 0.0001]</t>
-  </si>
-  <si>
-    <t>21.92902</t>
-  </si>
-  <si>
-    <t>2.24334</t>
-  </si>
-  <si>
-    <t>0.25148</t>
-  </si>
-  <si>
-    <t>0.13904</t>
-  </si>
-  <si>
-    <t>0.00001</t>
+    <t>[0. 2. 0. 1.]</t>
+  </si>
+  <si>
+    <t>[0.6268 0.2799 1.5605 2.7204]</t>
+  </si>
+  <si>
+    <t>[0.6391 0.5604 0.9618 2.4396]</t>
+  </si>
+  <si>
+    <t>[0.3301 1.3244 0.3608 1.6756]</t>
+  </si>
+  <si>
+    <t>[0.2284 1.5546 0.2054 1.4454]</t>
+  </si>
+  <si>
+    <t>[0.0667 1.8677 0.0644 1.1323]</t>
+  </si>
+  <si>
+    <t>[0.0167 1.9657 0.0185 1.0343]</t>
+  </si>
+  <si>
+    <t>[0.0145 1.9711 0.0144 1.0289]</t>
+  </si>
+  <si>
+    <t>[0.0103 1.9793 0.0103 1.0207]</t>
+  </si>
+  <si>
+    <t>[0.0083 1.9834 0.0083 1.0166]</t>
+  </si>
+  <si>
+    <t>[0.0016 1.9968 0.0016 1.0032]</t>
+  </si>
+  <si>
+    <t>[0.0008 1.9984 0.0008 1.0016]</t>
+  </si>
+  <si>
+    <t>[0.0006 1.9987 0.0006 1.0013]</t>
+  </si>
+  <si>
+    <t>[0.0001 1.9998 0.0001 1.0002]</t>
+  </si>
+  <si>
+    <t>[0.0001 1.9999 0.0001 1.0001]</t>
+  </si>
+  <si>
+    <t>[0.     1.9999 0.     1.0001]</t>
+  </si>
+  <si>
+    <t>[0.5 0.  0.5 0. ]</t>
+  </si>
+  <si>
+    <t>[1.2747 0.9694 0.7583 0.453 ]</t>
+  </si>
+  <si>
+    <t>[0.4732 0.1437 0.4911 0.1616]</t>
+  </si>
+  <si>
+    <t>[0.5389 0.1577 0.513  0.1318]</t>
+  </si>
+  <si>
+    <t>[0.4543 0.0444 0.4848 0.0749]</t>
+  </si>
+  <si>
+    <t>[0.4599 0.0114 0.4866 0.0381]</t>
+  </si>
+  <si>
+    <t>[0.4891 0.0046 0.4964 0.0118]</t>
+  </si>
+  <si>
+    <t>[0.495  0.0036 0.4983 0.007 ]</t>
+  </si>
+  <si>
+    <t>[0.4963 0.0026 0.4988 0.0051]</t>
+  </si>
+  <si>
+    <t>[0.497  0.0021 0.499  0.0041]</t>
+  </si>
+  <si>
+    <t>[0.4993 0.0004 0.4998 0.0009]</t>
+  </si>
+  <si>
+    <t>[0.4997 0.0002 0.4999 0.0004]</t>
+  </si>
+  <si>
+    <t>[0.4998 0.0002 0.4999 0.0003]</t>
+  </si>
+  <si>
+    <t>[-7.5 -2.5]</t>
+  </si>
+  <si>
+    <t>[-0.0007 -0.0002]</t>
+  </si>
+  <si>
+    <t>[-0. -0.]</t>
+  </si>
+  <si>
+    <t>[-0.  0.]</t>
+  </si>
+  <si>
+    <t>[0. 0.]</t>
+  </si>
+  <si>
+    <t>[ 0. -0.]</t>
+  </si>
+  <si>
+    <t>[-0.75 -0.75 -0.75 -0.75]</t>
+  </si>
+  <si>
+    <t>[-0.0001 -0.0001 -0.0001 -0.0001]</t>
+  </si>
+  <si>
+    <t>[-0. -0. -0. -0.]</t>
+  </si>
+  <si>
+    <t>[ 0. -0. -0. -0.]</t>
+  </si>
+  <si>
+    <t>[-0. -0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 0. -0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[-0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[0. 0. 0. 0.]</t>
+  </si>
+  <si>
+    <t>[0.799  0.2713 1.1833 1.2324]</t>
+  </si>
+  <si>
+    <t>[0.3024 0.0805 0.4723 0.3941]</t>
+  </si>
+  <si>
+    <t>[0.1779 0.2089 0.1851 0.2209]</t>
+  </si>
+  <si>
+    <t>[0.1038 0.0691 0.0996 0.1083]</t>
+  </si>
+  <si>
+    <t>[0.0307 0.0212 0.0313 0.0431]</t>
+  </si>
+  <si>
+    <t>[0.0082 0.0089 0.0092 0.0122]</t>
+  </si>
+  <si>
+    <t>[0.0072 0.0072 0.0072 0.0072]</t>
+  </si>
+  <si>
+    <t>[0.0051 0.0051 0.0051 0.0052]</t>
+  </si>
+  <si>
+    <t>[0.0041 0.0041 0.0041 0.0041]</t>
+  </si>
+  <si>
+    <t>[0.0008 0.0008 0.0008 0.0009]</t>
+  </si>
+  <si>
+    <t>[0.0004 0.0004 0.0004 0.0004]</t>
+  </si>
+  <si>
+    <t>[0.0003 0.0003 0.0003 0.0003]</t>
+  </si>
+  <si>
+    <t>-2.50000</t>
+  </si>
+  <si>
+    <t>-0.00025</t>
+  </si>
+  <si>
+    <t>-0.00000</t>
   </si>
   <si>
     <t>0.00000</t>
-  </si>
-  <si>
-    <t>-0.00000</t>
   </si>
 </sst>
 </file>
@@ -717,28 +615,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39.80403590861816</v>
+        <v>-2.5</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H2">
-        <v>1.41994544199221e-15</v>
+        <v>7.770727681979428e-17</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -746,28 +644,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.122158920017009</v>
+        <v>3.48496323918123</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
       <c r="H3">
-        <v>2.405825597929232</v>
+        <v>0.7700299671998959</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -775,28 +673,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.1825826831561</v>
+        <v>1.249366762397172</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
       <c r="H4">
-        <v>0.4732938315298498</v>
+        <v>0.2934541946221467</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -804,28 +702,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.522096275660562</v>
+        <v>0.7927855267230781</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
       <c r="H5">
-        <v>0.3144515676303228</v>
+        <v>0.03486868424784317</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -833,28 +731,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7694305629019853</v>
+        <v>0.3807217097655746</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6">
+        <v>0.03074629041765135</v>
+      </c>
+      <c r="I6" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6">
-        <v>0.02402716024317442</v>
-      </c>
-      <c r="I6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -862,28 +760,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3093353680552788</v>
+        <v>0.1263820875106909</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
       <c r="H7">
-        <v>0.01111867681070977</v>
+        <v>0.01552999586605267</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -891,28 +789,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2458512842002365</v>
+        <v>0.03847496311827414</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H8">
-        <v>0.001798390487097873</v>
+        <v>0.003071710834298674</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -920,28 +818,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1320188516797163</v>
+        <v>0.02867777672721905</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="H9">
-        <v>0.003205157620672107</v>
+        <v>3.065057329645392e-05</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -949,28 +847,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1027468186300735</v>
+        <v>0.02056040150968141</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="H10">
-        <v>0.0006278809171530378</v>
+        <v>1.900578361705664e-05</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -978,28 +876,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.09066916297738932</v>
+        <v>0.01650525838976602</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H11">
-        <v>0.0001202810851524143</v>
+        <v>4.806368198673331e-06</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1007,28 +905,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0378509536855582</v>
+        <v>0.003241751448909147</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H12">
-        <v>0.001893847827253601</v>
+        <v>5.119028937083206e-05</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1036,28 +934,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03161469070622586</v>
+        <v>0.001579296631907479</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H13">
-        <v>0.0001028853530183553</v>
+        <v>8.720774579548347e-07</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1065,28 +963,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02444558991039863</v>
+        <v>0.001254852758623359</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H14">
-        <v>0.0001024642303835637</v>
+        <v>3.139206740016044e-08</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1094,28 +992,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.005357989495174117</v>
+        <v>0.0001720801583242615</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H15">
-        <v>0.0009199740206548515</v>
+        <v>3.470868905669546e-07</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1123,28 +1021,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.002893096039442759</v>
+        <v>0.0001045988318739699</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H16">
-        <v>0.0002904634113424401</v>
+        <v>1.398136620478293e-09</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1152,28 +1050,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0003720415727398035</v>
+        <v>5.080497891229996e-05</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="H17">
-        <v>3.283227311506725e-05</v>
+        <v>8.579783715243386e-10</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1181,28 +1079,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.344849628838994e-05</v>
+        <v>3.223684895847789e-05</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H18">
-        <v>4.860718543400837e-07</v>
+        <v>1.023023794416142e-10</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1210,28 +1108,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.850326062055596e-05</v>
+        <v>2.856724158006863e-05</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H19">
-        <v>9.775485150095025e-09</v>
+        <v>4.002482387601166e-12</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1239,28 +1137,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.268967991656378e-05</v>
+        <v>4.529387570340049e-06</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H20">
-        <v>2.852455255772857e-10</v>
+        <v>1.712968376020841e-10</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1268,28 +1166,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.468225176214538e-06</v>
+        <v>3.436698840619812e-06</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H21">
-        <v>2.302381972413928e-10</v>
+        <v>3.712051554976899e-13</v>
       </c>
       <c r="I21" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1297,28 +1195,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.803469498973091e-06</v>
+        <v>9.278560082481846e-07</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H22">
-        <v>2.34148071906722e-11</v>
+        <v>1.866058317560418e-12</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1326,28 +1224,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.35483909892631e-06</v>
+        <v>6.358513142679101e-07</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H23">
-        <v>5.062131708318358e-11</v>
+        <v>2.546537551127804e-14</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1355,28 +1253,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.720973337143716e-06</v>
+        <v>1.728888672225537e-07</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H24">
-        <v>2.253886092759562e-11</v>
+        <v>6.35447879014813e-14</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1384,28 +1282,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.315656538290805e-07</v>
+        <v>1.097154358475905e-07</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" t="s">
-        <v>76</v>
-      </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H25">
-        <v>6.679241853994211e-12</v>
+        <v>1.189507658314286e-15</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1413,28 +1311,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.370102927766072e-07</v>
+        <v>9.537164769035655e-08</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H26">
-        <v>2.065122626596265e-12</v>
+        <v>6.111462730262687e-17</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1442,28 +1340,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.488401291775524e-08</v>
+        <v>8.274579910150237e-08</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H27">
-        <v>6.720380131011119e-13</v>
+        <v>4.726596440914009e-17</v>
       </c>
       <c r="I27" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1471,28 +1369,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.170563716263896e-08</v>
+        <v>3.278881033352832e-08</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H28">
-        <v>9.358260363864659e-15</v>
+        <v>7.398889152812689e-16</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1500,28 +1398,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8.739656602585466e-09</v>
+        <v>1.660658077717869e-08</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H29">
-        <v>1.41994544199221e-15</v>
+        <v>7.770727681979428e-17</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Python/LPF_polyhedron.xlsx
+++ b/Python/LPF_polyhedron.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>it</t>
   </si>
@@ -46,43 +46,37 @@
     <t>[0. 2. 0. 1.]</t>
   </si>
   <si>
-    <t>[0.6268 0.2799 1.5605 2.7204]</t>
-  </si>
-  <si>
-    <t>[0.6391 0.5604 0.9618 2.4396]</t>
-  </si>
-  <si>
-    <t>[0.3301 1.3244 0.3608 1.6756]</t>
-  </si>
-  <si>
-    <t>[0.2284 1.5546 0.2054 1.4454]</t>
-  </si>
-  <si>
-    <t>[0.0667 1.8677 0.0644 1.1323]</t>
-  </si>
-  <si>
-    <t>[0.0167 1.9657 0.0185 1.0343]</t>
-  </si>
-  <si>
-    <t>[0.0145 1.9711 0.0144 1.0289]</t>
-  </si>
-  <si>
-    <t>[0.0103 1.9793 0.0103 1.0207]</t>
-  </si>
-  <si>
-    <t>[0.0083 1.9834 0.0083 1.0166]</t>
-  </si>
-  <si>
-    <t>[0.0016 1.9968 0.0016 1.0032]</t>
+    <t>[0.4461 0.8169 1.0287 2.1834]</t>
+  </si>
+  <si>
+    <t>[0.5094 0.8708 0.7304 2.1292]</t>
+  </si>
+  <si>
+    <t>[0.4622 1.0665 0.4803 1.9335]</t>
+  </si>
+  <si>
+    <t>[0.1836 1.6519 0.1455 1.3481]</t>
+  </si>
+  <si>
+    <t>[0.0052 1.9825 0.0195 1.0175]</t>
+  </si>
+  <si>
+    <t>[0.0135 1.9732 0.0129 1.0268]</t>
+  </si>
+  <si>
+    <t>[0.0044 1.9912 0.0044 1.0088]</t>
+  </si>
+  <si>
+    <t>[0.0039 1.9921 0.0039 1.0079]</t>
   </si>
   <si>
     <t>[0.0008 1.9984 0.0008 1.0016]</t>
   </si>
   <si>
-    <t>[0.0006 1.9987 0.0006 1.0013]</t>
-  </si>
-  <si>
-    <t>[0.0001 1.9998 0.0001 1.0002]</t>
+    <t>[0.0006 1.9988 0.0006 1.0012]</t>
+  </si>
+  <si>
+    <t>[0.0002 1.9995 0.0002 1.0005]</t>
   </si>
   <si>
     <t>[0.0001 1.9999 0.0001 1.0001]</t>
@@ -94,40 +88,37 @@
     <t>[0.5 0.  0.5 0. ]</t>
   </si>
   <si>
-    <t>[1.2747 0.9694 0.7583 0.453 ]</t>
-  </si>
-  <si>
-    <t>[0.4732 0.1437 0.4911 0.1616]</t>
-  </si>
-  <si>
-    <t>[0.5389 0.1577 0.513  0.1318]</t>
-  </si>
-  <si>
-    <t>[0.4543 0.0444 0.4848 0.0749]</t>
-  </si>
-  <si>
-    <t>[0.4599 0.0114 0.4866 0.0381]</t>
-  </si>
-  <si>
-    <t>[0.4891 0.0046 0.4964 0.0118]</t>
-  </si>
-  <si>
-    <t>[0.495  0.0036 0.4983 0.007 ]</t>
-  </si>
-  <si>
-    <t>[0.4963 0.0026 0.4988 0.0051]</t>
-  </si>
-  <si>
-    <t>[0.497  0.0021 0.499  0.0041]</t>
-  </si>
-  <si>
-    <t>[0.4993 0.0004 0.4998 0.0009]</t>
+    <t>[0.8572 0.59   0.6191 0.3519]</t>
+  </si>
+  <si>
+    <t>[1.0073 0.5775 0.6691 0.2394]</t>
+  </si>
+  <si>
+    <t>[0.465  0.0876 0.4883 0.1109]</t>
+  </si>
+  <si>
+    <t>[0.4175 0.0114 0.4725 0.0664]</t>
+  </si>
+  <si>
+    <t>[0.4697 0.0048 0.4899 0.025 ]</t>
+  </si>
+  <si>
+    <t>[0.4957 0.0033 0.4986 0.0062]</t>
+  </si>
+  <si>
+    <t>[0.4982 0.0011 0.4994 0.0023]</t>
+  </si>
+  <si>
+    <t>[0.4986 0.001  0.4995 0.0019]</t>
   </si>
   <si>
     <t>[0.4997 0.0002 0.4999 0.0004]</t>
   </si>
   <si>
-    <t>[0.4998 0.0002 0.4999 0.0003]</t>
+    <t>[0.4998 0.0001 0.4999 0.0003]</t>
+  </si>
+  <si>
+    <t>[0.4999 0.0001 0.5    0.0001]</t>
   </si>
   <si>
     <t>[-7.5 -2.5]</t>
@@ -139,15 +130,15 @@
     <t>[-0. -0.]</t>
   </si>
   <si>
+    <t>[ 0. -0.]</t>
+  </si>
+  <si>
     <t>[-0.  0.]</t>
   </si>
   <si>
     <t>[0. 0.]</t>
   </si>
   <si>
-    <t>[ 0. -0.]</t>
-  </si>
-  <si>
     <t>[-0.75 -0.75 -0.75 -0.75]</t>
   </si>
   <si>
@@ -163,49 +154,46 @@
     <t>[-0. -0.  0.  0.]</t>
   </si>
   <si>
+    <t>[0. 0. 0. 0.]</t>
+  </si>
+  <si>
     <t>[ 0. -0.  0.  0.]</t>
   </si>
   <si>
     <t>[-0.  0.  0.  0.]</t>
   </si>
   <si>
-    <t>[0. 0. 0. 0.]</t>
-  </si>
-  <si>
-    <t>[0.799  0.2713 1.1833 1.2324]</t>
-  </si>
-  <si>
-    <t>[0.3024 0.0805 0.4723 0.3941]</t>
-  </si>
-  <si>
-    <t>[0.1779 0.2089 0.1851 0.2209]</t>
-  </si>
-  <si>
-    <t>[0.1038 0.0691 0.0996 0.1083]</t>
-  </si>
-  <si>
-    <t>[0.0307 0.0212 0.0313 0.0431]</t>
-  </si>
-  <si>
-    <t>[0.0082 0.0089 0.0092 0.0122]</t>
-  </si>
-  <si>
-    <t>[0.0072 0.0072 0.0072 0.0072]</t>
-  </si>
-  <si>
-    <t>[0.0051 0.0051 0.0051 0.0052]</t>
-  </si>
-  <si>
-    <t>[0.0041 0.0041 0.0041 0.0041]</t>
-  </si>
-  <si>
-    <t>[0.0008 0.0008 0.0008 0.0009]</t>
+    <t>[0.3824 0.482  0.6369 0.7684]</t>
+  </si>
+  <si>
+    <t>[0.5131 0.5029 0.4887 0.5097]</t>
+  </si>
+  <si>
+    <t>[0.2149 0.0934 0.2345 0.2145]</t>
+  </si>
+  <si>
+    <t>[0.0767 0.0188 0.0687 0.0895]</t>
+  </si>
+  <si>
+    <t>[0.0024 0.0096 0.0096 0.0254]</t>
+  </si>
+  <si>
+    <t>[0.0067 0.0065 0.0064 0.0063]</t>
+  </si>
+  <si>
+    <t>[0.0022 0.0022 0.0022 0.0023]</t>
+  </si>
+  <si>
+    <t>[0.002 0.002 0.002 0.002]</t>
   </si>
   <si>
     <t>[0.0004 0.0004 0.0004 0.0004]</t>
   </si>
   <si>
     <t>[0.0003 0.0003 0.0003 0.0003]</t>
+  </si>
+  <si>
+    <t>[0.0001 0.0001 0.0001 0.0001]</t>
   </si>
   <si>
     <t>-2.50000</t>
@@ -575,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,22 +609,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H2">
-        <v>7.770727681979428e-17</v>
+        <v>3.024317889931462e-15</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -644,28 +632,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.48496323918123</v>
+        <v>2.268766510013962</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3">
-        <v>0.7700299671998959</v>
+        <v>0.2945409718455146</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -673,28 +661,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.249366762397172</v>
+        <v>2.014358062194479</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>0.2934541946221467</v>
+        <v>0.01869482220673623</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -702,28 +690,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7927855267230781</v>
+        <v>0.7573123261747887</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H5">
-        <v>0.03486868424784317</v>
+        <v>0.1119533814054404</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -731,28 +719,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3807217097655746</v>
+        <v>0.2537243339043396</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6">
-        <v>0.03074629041765135</v>
+        <v>0.05358102995493548</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -760,28 +748,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1263820875106909</v>
+        <v>0.04700182010186649</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H7">
-        <v>0.01552999586605267</v>
+        <v>0.01684186783593322</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -789,28 +777,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03847496311827414</v>
+        <v>0.02597616108673728</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H8">
-        <v>0.003071710834298674</v>
+        <v>0.000282648487950674</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -818,28 +806,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02867777672721905</v>
+        <v>0.008894441525290508</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H9">
-        <v>3.065057329645392e-05</v>
+        <v>8.350439583176112e-05</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -847,28 +835,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02056040150968141</v>
+        <v>0.007859171913559448</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H10">
-        <v>1.900578361705664e-05</v>
+        <v>3.756441749740604e-07</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -876,28 +864,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01650525838976602</v>
+        <v>0.00156601518440036</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H11">
-        <v>4.806368198673331e-06</v>
+        <v>1.163475132073282e-05</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -905,28 +893,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.003241751448909147</v>
+        <v>0.00116751312079999</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12">
-        <v>5.119028937083206e-05</v>
+        <v>5.088339382860341e-08</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -934,28 +922,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.001579296631907479</v>
+        <v>0.000481811687263356</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H13">
-        <v>8.720774579548347e-07</v>
+        <v>1.392276209586947e-07</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -963,28 +951,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.001254852758623359</v>
+        <v>0.0001093110860881374</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>3.139206740016044e-08</v>
+        <v>4.115738851608374e-08</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -992,28 +980,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0001720801583242615</v>
+        <v>6.896246543841578e-05</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>3.470868905669546e-07</v>
+        <v>4.876686656124749e-10</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1021,28 +1009,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0001045988318739699</v>
+        <v>1.458799371412134e-05</v>
       </c>
       <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H16">
-        <v>1.398136620478293e-09</v>
+        <v>8.765127689629989e-10</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1050,28 +1038,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.080497891229996e-05</v>
+        <v>1.191454383975277e-05</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H17">
-        <v>8.579783715243386e-10</v>
+        <v>2.207906056958755e-12</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1079,28 +1067,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.223684895847789e-05</v>
+        <v>6.551690806322341e-06</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>1.023023794416142e-10</v>
+        <v>8.52645742997569e-12</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1108,28 +1096,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.856724158006863e-05</v>
+        <v>2.903386394415008e-06</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H19">
-        <v>4.002482387601166e-12</v>
+        <v>3.946807303681269e-12</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1137,28 +1125,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.529387570340049e-06</v>
+        <v>2.18533886964245e-06</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>1.712968376020841e-10</v>
+        <v>1.532501143447098e-13</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1166,28 +1154,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.436698840619812e-06</v>
+        <v>1.110634883394468e-06</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>3.712051554976899e-13</v>
+        <v>3.424265629235221e-13</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1195,28 +1183,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.278560082481846e-07</v>
+        <v>8.171932390776959e-07</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H22">
-        <v>1.866058317560418e-12</v>
+        <v>2.556214952645278e-14</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1224,28 +1212,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.358513142679101e-07</v>
+        <v>1.240146862979685e-07</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H23">
-        <v>2.546537551127804e-14</v>
+        <v>1.424521215091434e-13</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1253,173 +1241,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.728888672225537e-07</v>
+        <v>2.325140990855346e-08</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H24">
-        <v>6.35447879014813e-14</v>
+        <v>3.024317889931462e-15</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>1.097154358475905e-07</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25">
-        <v>1.189507658314286e-15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>9.537164769035655e-08</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26">
-        <v>6.111462730262687e-17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>8.274579910150237e-08</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27">
-        <v>4.726596440914009e-17</v>
-      </c>
-      <c r="I27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>3.278881033352832e-08</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28">
-        <v>7.398889152812689e-16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1.660658077717869e-08</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29">
-        <v>7.770727681979428e-17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
